--- a/MvcMovie/Uploads/Excels/cuongchip.xlsx
+++ b/MvcMovie/Uploads/Excels/cuongchip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF98694-1ECD-472B-9570-A9093E6D0A02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF8ABD-681A-4F77-99FA-FDD10E1B6CC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="60" windowWidth="15375" windowHeight="7875" xr2:uid="{19EA1F5F-0FB0-4E50-AACC-A22EE7D4F5C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19EA1F5F-0FB0-4E50-AACC-A22EE7D4F5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>PersonId</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>PS011</t>
+  </si>
+  <si>
+    <t>PS012</t>
+  </si>
+  <si>
+    <t>PS013</t>
+  </si>
+  <si>
+    <t>PS014</t>
+  </si>
+  <si>
+    <t>PS015</t>
+  </si>
+  <si>
+    <t>PS016</t>
+  </si>
+  <si>
+    <t>PS017</t>
+  </si>
+  <si>
+    <t>PS018</t>
+  </si>
+  <si>
+    <t>PS019</t>
+  </si>
+  <si>
+    <t>PS020</t>
   </si>
 </sst>
 </file>
@@ -500,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78933DA8-4D0E-49C8-93BA-F1545B9704CA}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +663,116 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
